--- a/uk/ons/datadownload.xlsx
+++ b/uk/ons/datadownload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc900-999\dvc998-weeklydeaths\fig1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1010-weeklydeaths\fig1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45CB6E1B-1D61-4398-BCD1-7E16CC68A8B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{51ADDA70-26DA-4CAF-8F6C-25B4D8102F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36D94BB6-D971-4401-BBF9-C36EFB37C88F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Week no.</t>
   </si>
@@ -191,13 +191,16 @@
     <t>Week 38</t>
   </si>
   <si>
-    <t>Number of deaths registered by week, England and Wales, 28 December 2019 to 25 September 2020</t>
-  </si>
-  <si>
     <t>Week 39</t>
   </si>
   <si>
-    <t>Figure 1: Deaths in England and Wales involving COVID-19 increased for the third consecutive week</t>
+    <t>Number of deaths registered by week, England and Wales, 28 December 2019 to 2 October 2020</t>
+  </si>
+  <si>
+    <t>Week 40</t>
+  </si>
+  <si>
+    <t>Figure 1: Deaths in England and Wales involving COVID-19 increased for the fourth consecutive week</t>
   </si>
 </sst>
 </file>
@@ -619,7 +622,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C41CE58-46A6-499C-9BFC-D7F27AF7B308}">
-  <dimension ref="A1:AJ48"/>
+  <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -638,12 +641,12 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1780,7 +1783,7 @@
         <v>9533</v>
       </c>
       <c r="F45" s="11">
-        <v>1197</v>
+        <v>1132</v>
       </c>
       <c r="G45" s="11">
         <v>1394</v>
@@ -1817,29 +1820,29 @@
       <c r="AI45" s="10"/>
       <c r="AJ45" s="10"/>
     </row>
-    <row r="46" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46" s="13">
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="11">
         <v>9634</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="11">
         <v>9377</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="11">
         <v>8994</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="11">
         <v>9689</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="11">
         <v>1172</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="11">
         <v>1471</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="11">
         <v>215</v>
       </c>
       <c r="I46" s="10"/>
@@ -1871,8 +1874,62 @@
       <c r="AI46" s="10"/>
       <c r="AJ46" s="10"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="47" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="13">
+        <v>9945</v>
+      </c>
+      <c r="C47" s="13">
+        <v>9555</v>
+      </c>
+      <c r="D47" s="13">
+        <v>9291</v>
+      </c>
+      <c r="E47" s="13">
+        <v>9798</v>
+      </c>
+      <c r="F47" s="13">
+        <v>1155</v>
+      </c>
+      <c r="G47" s="13">
+        <v>1534</v>
+      </c>
+      <c r="H47" s="13">
+        <v>321</v>
+      </c>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+      <c r="AJ47" s="10"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1885,10 +1942,24 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
@@ -1906,16 +1977,21 @@
     </TaxKeywordTaxHTField>
     <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
     <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
-    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19431</_dlc_DocId>
+    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19492</_dlc_DocId>
     <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19431</Url>
-      <Description>D5PZWENCX5VS-1990262282-19431</Description>
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19492</Url>
+      <Description>D5PZWENCX5VS-1990262282-19492</Description>
     </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2020,38 +2096,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<p:Policy xmlns:p="office.server.policy" id="" local="true">
-  <p:Name>ONS Document</p:Name>
-  <p:Description/>
-  <p:Statement/>
-  <p:PolicyItems>
-    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
-      <p:Name>Retention</p:Name>
-      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
-      <p:CustomData>
-        <Schedules nextStageId="2">
-          <Schedule type="Default">
-            <stages>
-              <data stageId="1">
-                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
-                  <number>100</number>
-                  <property>Retention_x0020_Date</property>
-                  <period>years</period>
-                </formula>
-                <action type="action" id="ONS-RetentionAction"/>
-              </data>
-            </stages>
-          </Schedule>
-        </Schedules>
-      </p:CustomData>
-    </p:PolicyItem>
-  </p:PolicyItems>
-</p:Policy>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Document" ma:contentTypeID="0x01010035E33599CC8D1E47A037F474646B1D5800765C09E86B6F9B4CB8C5B4D9E66FE95C" ma:contentTypeVersion="75" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="832f6075ec282772df59d4104850d381">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e14115de-03ae-49b5-af01-31035404c456" xmlns:ns4="dc303f24-2943-4ba3-b258-fc561e2477ee" xmlns:ns6="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2d612bf7cad990eae8aa64dc4bb0a3b" ns1:_="" ns3:_="" ns4:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2273,26 +2318,73 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:Policy xmlns:p="office.server.policy" id="" local="true">
+  <p:Name>ONS Document</p:Name>
+  <p:Description/>
+  <p:Statement/>
+  <p:PolicyItems>
+    <p:PolicyItem featureId="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration" staticId="0x01010035E33599CC8D1E47A037F474646B1D58|2057524105" UniqueId="d097a687-1114-45fc-89d8-799351d0ef20">
+      <p:Name>Retention</p:Name>
+      <p:Description>Automatic scheduling of content for processing, and performing a retention action on content that has reached its due date.</p:Description>
+      <p:CustomData>
+        <Schedules nextStageId="2">
+          <Schedule type="Default">
+            <stages>
+              <data stageId="1">
+                <formula id="Microsoft.Office.RecordsManagement.PolicyFeatures.Expiration.Formula.BuiltIn">
+                  <number>100</number>
+                  <property>Retention_x0020_Date</property>
+                  <period>years</period>
+                </formula>
+                <action type="action" id="ONS-RetentionAction"/>
+              </data>
+            </stages>
+          </Schedule>
+        </Schedules>
+      </p:CustomData>
+    </p:PolicyItem>
+  </p:PolicyItems>
+</p:Policy>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CB6CFA2-AC76-4E96-A243-EB0CB3EB9BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA899B0-AA5F-4B2C-AFBA-BE63A34AD057}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A86D8ED3-4A7B-4130-B59D-38769D878E33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D7FEAA1-BD9F-471F-BA2D-4326F2C663F6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
@@ -2300,26 +2392,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A86D8ED3-4A7B-4130-B59D-38769D878E33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
-    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
-    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E7EEAA4-9ED7-45DB-AAF9-08C575F09C5F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -2327,15 +2400,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589780B0-1229-4EE0-B938-96E7D98CE80D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="office.server.policy"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31CB4885-3C53-48E6-A03C-F279AC50A29B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2356,18 +2421,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CB6CFA2-AC76-4E96-A243-EB0CB3EB9BCA}">
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589780B0-1229-4EE0-B938-96E7D98CE80D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA899B0-AA5F-4B2C-AFBA-BE63A34AD057}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="office.server.policy"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/uk/ons/datadownload.xlsx
+++ b/uk/ons/datadownload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1010-weeklydeaths\fig1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\dvc1000-1099\dvc1024-weeklydeaths\fig1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{51ADDA70-26DA-4CAF-8F6C-25B4D8102F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6FF3AC-1353-4879-B72A-45465487C339}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{36D94BB6-D971-4401-BBF9-C36EFB37C88F}"/>
+    <workbookView xWindow="-23940" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{36D94BB6-D971-4401-BBF9-C36EFB37C88F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Week no.</t>
   </si>
@@ -194,13 +194,16 @@
     <t>Week 39</t>
   </si>
   <si>
-    <t>Number of deaths registered by week, England and Wales, 28 December 2019 to 2 October 2020</t>
-  </si>
-  <si>
     <t>Week 40</t>
   </si>
   <si>
-    <t>Figure 1: Deaths in England and Wales involving COVID-19 increased for the fourth consecutive week</t>
+    <t>Number of deaths registered by week, England and Wales, 28 December 2019 to 9 October 2020</t>
+  </si>
+  <si>
+    <t>Week 41</t>
+  </si>
+  <si>
+    <t>Figure 1: Deaths in England and Wales involving COVID-19 increased for the fifth consecutive week</t>
   </si>
 </sst>
 </file>
@@ -287,13 +290,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -302,8 +304,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -622,9 +622,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C41CE58-46A6-499C-9BFC-D7F27AF7B308}">
-  <dimension ref="A1:AJ49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -641,19 +643,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -661,34 +663,34 @@
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -696,25 +698,25 @@
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>12254</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>12175</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>10957</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>13045</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>2596</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>2775</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>0</v>
       </c>
     </row>
@@ -722,25 +724,25 @@
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>14058</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>13822</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>11501</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>16232</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="3">
         <v>2994</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="3">
         <v>3427</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -748,25 +750,25 @@
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>12990</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>13216</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>11473</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>14871</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="3">
         <v>2686</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>3299</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>0</v>
       </c>
     </row>
@@ -774,25 +776,25 @@
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>11856</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>12760</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>11317</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>13934</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="3">
         <v>2426</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="3">
         <v>3028</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>0</v>
       </c>
     </row>
@@ -800,25 +802,25 @@
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>11612</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>12206</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>11052</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>13281</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>2267</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>2789</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>0</v>
       </c>
     </row>
@@ -826,25 +828,25 @@
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>10986</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>11925</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>11170</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>12489</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>2045</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>2654</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0</v>
       </c>
     </row>
@@ -852,25 +854,25 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>10944</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>11627</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>10590</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>12243</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>1978</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>2551</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>0</v>
       </c>
     </row>
@@ -878,25 +880,25 @@
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>10841</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>11548</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>11056</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>12140</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>1996</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2539</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>0</v>
       </c>
     </row>
@@ -904,25 +906,25 @@
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>10816</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>11183</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>10854</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>11475</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>1948</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>2410</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="3">
         <v>0</v>
       </c>
     </row>
@@ -930,25 +932,25 @@
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>10895</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>11498</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>10900</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>12995</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>1907</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>2413</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>0</v>
       </c>
     </row>
@@ -956,25 +958,25 @@
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>11019</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>11205</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>10566</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>12785</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="3">
         <v>1879</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>2326</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>5</v>
       </c>
     </row>
@@ -982,25 +984,25 @@
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>10645</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>10573</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>9635</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>11911</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>1808</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>2120</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>103</v>
       </c>
     </row>
@@ -1008,25 +1010,25 @@
       <c r="A20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>11141</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>10130</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>9882</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>10501</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>1863</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>1983</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>539</v>
       </c>
     </row>
@@ -1034,25 +1036,25 @@
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>16387</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>10305</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>9055</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>11599</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>2367</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>2064</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>3475</v>
       </c>
     </row>
@@ -1060,25 +1062,25 @@
       <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>18516</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>10520</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>8502</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>12301</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>2003</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>2076</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>6213</v>
       </c>
     </row>
@@ -1086,25 +1088,25 @@
       <c r="A23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>22351</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>10497</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>9029</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>11640</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>1931</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>2034</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>8758</v>
       </c>
     </row>
@@ -1112,25 +1114,25 @@
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>21997</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>10458</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>10057</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>10915</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>1696</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>1938</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>8237</v>
       </c>
     </row>
@@ -1138,25 +1140,25 @@
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>17953</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>9941</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>9071</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>11208</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>1450</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>1814</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>6035</v>
       </c>
     </row>
@@ -1164,25 +1166,25 @@
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="3">
         <v>12657</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>9576</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>8623</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>10706</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>994</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>1697</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>3930</v>
       </c>
     </row>
@@ -1190,25 +1192,25 @@
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>14573</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>10188</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>9953</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>10290</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>1194</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>1804</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>3810</v>
       </c>
     </row>
@@ -1216,25 +1218,25 @@
       <c r="A28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>12288</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>9940</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>9633</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>10282</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>1066</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>1734</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>2589</v>
       </c>
     </row>
@@ -1242,25 +1244,25 @@
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>9824</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>8171</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="3">
         <v>7909</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>8334</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="3">
         <v>911</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>1400</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>1822</v>
       </c>
     </row>
@@ -1268,25 +1270,25 @@
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <v>10709</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>9977</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="3">
         <v>9770</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>10156</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="3">
         <v>1036</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>1704</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>1588</v>
       </c>
     </row>
@@ -1294,25 +1296,25 @@
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <v>9976</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <v>9417</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <v>9342</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>9545</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <v>996</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>1582</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>1114</v>
       </c>
     </row>
@@ -1320,616 +1322,446 @@
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="3">
         <v>9339</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>9404</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="3">
         <v>9253</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>9628</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="3">
         <v>1002</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>1562</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="3">
         <v>783</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>8979</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>9293</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="3">
         <v>9184</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>9510</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="3">
         <v>938</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>1498</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <v>9140</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>9183</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <v>9060</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>9260</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <v>1004</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>1459</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <v>532</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="3">
         <v>8690</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="3">
         <v>9250</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="3">
         <v>9019</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="3">
         <v>9388</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="3">
         <v>917</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="3">
         <v>1452</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="3">
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="3">
         <v>8823</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="3">
         <v>9093</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="3">
         <v>8801</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="3">
         <v>9350</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="3">
         <v>879</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="3">
         <v>1452</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="3">
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="3">
         <v>8891</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="3">
         <v>9052</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="3">
         <v>8793</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="3">
         <v>9335</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="3">
         <v>958</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="3">
         <v>1400</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="3">
         <v>8946</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="3">
         <v>9036</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="3">
         <v>8621</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="3">
         <v>9275</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="3">
         <v>928</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="3">
         <v>1394</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="3">
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:36" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="3">
         <v>8945</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="3">
         <v>9102</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="3">
         <v>8859</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="3">
         <v>9319</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="3">
         <v>1013</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="3">
         <v>1400</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="3">
         <v>9392</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="3">
         <v>9085</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="3">
         <v>8829</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="3">
         <v>9288</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="3">
         <v>1002</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="3">
         <v>1407</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="3">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="3">
         <v>9631</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="3">
         <v>9157</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="3">
         <v>8976</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="3">
         <v>9379</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="3">
         <v>1151</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="3">
         <v>1412</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="3">
         <v>138</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
-      <c r="AD41" s="10"/>
-      <c r="AE41" s="10"/>
-      <c r="AF41" s="10"/>
-      <c r="AG41" s="10"/>
-      <c r="AH41" s="10"/>
-      <c r="AI41" s="10"/>
-      <c r="AJ41" s="10"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="3">
         <v>9032</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="3">
         <v>8241</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="3">
         <v>7863</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="3">
         <v>9031</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="3">
         <v>1040</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="3">
         <v>1248</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="3">
         <v>101</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
-      <c r="AA42" s="10"/>
-      <c r="AB42" s="10"/>
-      <c r="AC42" s="10"/>
-      <c r="AD42" s="10"/>
-      <c r="AE42" s="10"/>
-      <c r="AF42" s="10"/>
-      <c r="AG42" s="10"/>
-      <c r="AH42" s="10"/>
-      <c r="AI42" s="10"/>
-      <c r="AJ42" s="10"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="3">
         <v>7739</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="3">
         <v>9182</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="3">
         <v>7874</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="3">
         <v>9697</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="3">
         <v>874</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="3">
         <v>1416</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="3">
         <v>78</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
-      <c r="AD43" s="10"/>
-      <c r="AE43" s="10"/>
-      <c r="AF43" s="10"/>
-      <c r="AG43" s="10"/>
-      <c r="AH43" s="10"/>
-      <c r="AI43" s="10"/>
-      <c r="AJ43" s="10"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <v>9811</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>9306</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="3">
         <v>9124</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>9511</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="3">
         <v>1125</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="3">
         <v>1423</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="3">
         <v>99</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
-      <c r="AF44" s="10"/>
-      <c r="AG44" s="10"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="10"/>
-      <c r="AJ44" s="10"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="3">
         <v>9523</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="3">
         <v>9264</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="3">
         <v>8945</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="3">
         <v>9533</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="3">
         <v>1132</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="3">
         <v>1394</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="3">
         <v>139</v>
       </c>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="3">
         <v>9634</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="3">
         <v>9377</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="3">
         <v>8994</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="3">
         <v>9689</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="3">
         <v>1172</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="3">
         <v>1471</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="3">
         <v>215</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-    </row>
-    <row r="47" spans="1:36" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="13">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="3">
         <v>9945</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="3">
         <v>9555</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="3">
         <v>9291</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="3">
         <v>9798</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="3">
         <v>1155</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="3">
         <v>1534</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="3">
         <v>321</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="10"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="48" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="10">
+        <v>9954</v>
+      </c>
+      <c r="C48" s="10">
+        <v>9811</v>
+      </c>
+      <c r="D48" s="10">
+        <v>9647</v>
+      </c>
+      <c r="E48" s="10">
+        <v>9972</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1183</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1600</v>
+      </c>
+      <c r="H48" s="10">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1941,162 +1773,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>True</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistical</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">5729cdfc-ed55-47a7-934b-6d10a24cc839</TermId>
-        </TermInfo>
-      </Terms>
-    </o5359087ad404c199aee74686ab194d3>
-    <RetentionDate xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
-    <RetentionType xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">Notify</RetentionType>
-    <TaxKeywordTaxHTField xmlns="e14115de-03ae-49b5-af01-31035404c456">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
-    <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
-    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19492</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
-      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19492</Url>
-      <Description>D5PZWENCX5VS-1990262282-19492</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>101</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>102</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>103</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>104</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10009</Type>
-    <SequenceNumber>105</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ONS Document" ma:contentTypeID="0x01010035E33599CC8D1E47A037F474646B1D5800765C09E86B6F9B4CB8C5B4D9E66FE95C" ma:contentTypeVersion="75" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="832f6075ec282772df59d4104850d381">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns3="e14115de-03ae-49b5-af01-31035404c456" xmlns:ns4="dc303f24-2943-4ba3-b258-fc561e2477ee" xmlns:ns6="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2d612bf7cad990eae8aa64dc4bb0a3b" ns1:_="" ns3:_="" ns4:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2318,6 +1994,162 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="a7dd7a64-f5c5-4f30-b8c4-f5626f639d1b" ContentTypeId="0x01010035E33599CC8D1E47A037F474646B1D58" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>101</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>102</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>103</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>104</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Microsoft.Office.RecordsManagement.PolicyFeatures.ExpirationEventReceiver</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10009</Type>
+    <SequenceNumber>105</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.Policy, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.RecordsManagement.Internal.UpdateExpireDate</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <o5359087ad404c199aee74686ab194d3 xmlns="e14115de-03ae-49b5-af01-31035404c456">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">Statistical</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">5729cdfc-ed55-47a7-934b-6d10a24cc839</TermId>
+        </TermInfo>
+      </Terms>
+    </o5359087ad404c199aee74686ab194d3>
+    <RetentionDate xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
+    <RetentionType xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">Notify</RetentionType>
+    <TaxKeywordTaxHTField xmlns="e14115de-03ae-49b5-af01-31035404c456">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <EDRMSOwner xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee" xsi:nil="true"/>
+    <Retention xmlns="dc303f24-2943-4ba3-b258-fc561e2477ee">0</Retention>
+    <_dlc_DocId xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">D5PZWENCX5VS-1990262282-19618</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60">
+      <Url>https://share.sp.ons.statistics.gov.uk/sites/HALE/AnalysisDissem/_layouts/15/DocIdRedir.aspx?ID=D5PZWENCX5VS-1990262282-19618</Url>
+      <Description>D5PZWENCX5VS-1990262282-19618</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>True</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <p:Policy xmlns:p="office.server.policy" id="" local="true">
@@ -2350,57 +2182,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CB6CFA2-AC76-4E96-A243-EB0CB3EB9BCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA899B0-AA5F-4B2C-AFBA-BE63A34AD057}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A86D8ED3-4A7B-4130-B59D-38769D878E33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D7FEAA1-BD9F-471F-BA2D-4326F2C663F6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E7EEAA4-9ED7-45DB-AAF9-08C575F09C5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31CB4885-3C53-48E6-A03C-F279AC50A29B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2421,6 +2202,57 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D7FEAA1-BD9F-471F-BA2D-4326F2C663F6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E7EEAA4-9ED7-45DB-AAF9-08C575F09C5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A86D8ED3-4A7B-4130-B59D-38769D878E33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="dc303f24-2943-4ba3-b258-fc561e2477ee"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="39b8a52d-d8b9-47ff-a8c3-c8931ddf8d60"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e14115de-03ae-49b5-af01-31035404c456"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AA899B0-AA5F-4B2C-AFBA-BE63A34AD057}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CB6CFA2-AC76-4E96-A243-EB0CB3EB9BCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{589780B0-1229-4EE0-B938-96E7D98CE80D}">
   <ds:schemaRefs>
